--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H2">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.806530893214324</v>
+        <v>0.9392856666666667</v>
       </c>
       <c r="N2">
-        <v>0.806530893214324</v>
+        <v>2.817857</v>
       </c>
       <c r="O2">
-        <v>0.1827014194891425</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="P2">
-        <v>0.1827014194891425</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="Q2">
-        <v>0.9042524449254128</v>
+        <v>0.5673517117131112</v>
       </c>
       <c r="R2">
-        <v>0.9042524449254128</v>
+        <v>5.106165405418</v>
       </c>
       <c r="S2">
-        <v>0.00256841121899215</v>
+        <v>0.001428246807149201</v>
       </c>
       <c r="T2">
-        <v>0.00256841121899215</v>
+        <v>0.001428246807149201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H3">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.74740698982626</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N3">
-        <v>1.74740698982626</v>
+        <v>6.020458</v>
       </c>
       <c r="O3">
-        <v>0.3958357208043984</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="P3">
-        <v>0.3958357208043984</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="Q3">
-        <v>1.959127735991464</v>
+        <v>1.212168378876889</v>
       </c>
       <c r="R3">
-        <v>1.959127735991464</v>
+        <v>10.909515409892</v>
       </c>
       <c r="S3">
-        <v>0.005564647001838317</v>
+        <v>0.003051503293487165</v>
       </c>
       <c r="T3">
-        <v>0.005564647001838317</v>
+        <v>0.003051503293487166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H4">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86053736006093</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="N4">
-        <v>1.86053736006093</v>
+        <v>0.030704</v>
       </c>
       <c r="O4">
-        <v>0.421462859706459</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="P4">
-        <v>0.421462859706459</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="Q4">
-        <v>2.085965300107973</v>
+        <v>0.006181991121777777</v>
       </c>
       <c r="R4">
-        <v>2.085965300107973</v>
+        <v>0.05563792009599999</v>
       </c>
       <c r="S4">
-        <v>0.005924912572028011</v>
+        <v>1.556249659464943E-05</v>
       </c>
       <c r="T4">
-        <v>0.005924912572028011</v>
+        <v>1.556249659464943E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>27.1456399017911</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H5">
-        <v>27.1456399017911</v>
+        <v>1.812074</v>
       </c>
       <c r="I5">
-        <v>0.3403721640627646</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J5">
-        <v>0.3403721640627646</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806530893214324</v>
+        <v>1.907411333333333</v>
       </c>
       <c r="N5">
-        <v>0.806530893214324</v>
+        <v>5.722234</v>
       </c>
       <c r="O5">
-        <v>0.1827014194891425</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="P5">
-        <v>0.1827014194891425</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="Q5">
-        <v>21.89379719686597</v>
+        <v>1.152123494812889</v>
       </c>
       <c r="R5">
-        <v>21.89379719686597</v>
+        <v>10.369111453316</v>
       </c>
       <c r="S5">
-        <v>0.06218647752885838</v>
+        <v>0.002900346767156957</v>
       </c>
       <c r="T5">
-        <v>0.06218647752885838</v>
+        <v>0.002900346767156957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H6">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I6">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J6">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.74740698982626</v>
+        <v>0.9392856666666667</v>
       </c>
       <c r="N6">
-        <v>1.74740698982626</v>
+        <v>2.817857</v>
       </c>
       <c r="O6">
-        <v>0.3958357208043984</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="P6">
-        <v>0.3958357208043984</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="Q6">
-        <v>47.4344809076964</v>
+        <v>1.055565475057334</v>
       </c>
       <c r="R6">
-        <v>47.4344809076964</v>
+        <v>9.500089275516002</v>
       </c>
       <c r="S6">
-        <v>0.1347314609035374</v>
+        <v>0.002657272355688085</v>
       </c>
       <c r="T6">
-        <v>0.1347314609035374</v>
+        <v>0.002657272355688085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H7">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86053736006093</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N7">
-        <v>1.86053736006093</v>
+        <v>6.020458</v>
       </c>
       <c r="O7">
-        <v>0.421462859706459</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="P7">
-        <v>0.421462859706459</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="Q7">
-        <v>50.50547720004306</v>
+        <v>2.255255539522667</v>
       </c>
       <c r="R7">
-        <v>50.50547720004306</v>
+        <v>20.297299855704</v>
       </c>
       <c r="S7">
-        <v>0.1434542256303688</v>
+        <v>0.005677362837071284</v>
       </c>
       <c r="T7">
-        <v>0.1434542256303688</v>
+        <v>0.005677362837071284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.3693316041126</v>
+        <v>1.123796</v>
       </c>
       <c r="H8">
-        <v>49.3693316041126</v>
+        <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.6190292915259406</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J8">
-        <v>0.6190292915259406</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.806530893214324</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="N8">
-        <v>0.806530893214324</v>
+        <v>0.030704</v>
       </c>
       <c r="O8">
-        <v>0.1827014194891425</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="P8">
-        <v>0.1827014194891425</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="Q8">
-        <v>39.81789111605909</v>
+        <v>0.01150167746133333</v>
       </c>
       <c r="R8">
-        <v>39.81789111605909</v>
+        <v>0.103515097152</v>
       </c>
       <c r="S8">
-        <v>0.1130975302671475</v>
+        <v>2.895423380570659E-05</v>
       </c>
       <c r="T8">
-        <v>0.1130975302671475</v>
+        <v>2.89542338057066E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.3693316041126</v>
+        <v>1.123796</v>
       </c>
       <c r="H9">
-        <v>49.3693316041126</v>
+        <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.6190292915259406</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J9">
-        <v>0.6190292915259406</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.74740698982626</v>
+        <v>1.907411333333333</v>
       </c>
       <c r="N9">
-        <v>1.74740698982626</v>
+        <v>5.722234</v>
       </c>
       <c r="O9">
-        <v>0.3958357208043984</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="P9">
-        <v>0.3958357208043984</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="Q9">
-        <v>86.26831512807685</v>
+        <v>2.143541226754667</v>
       </c>
       <c r="R9">
-        <v>86.26831512807685</v>
+        <v>19.291871040792</v>
       </c>
       <c r="S9">
-        <v>0.2450339058102068</v>
+        <v>0.005396134090899025</v>
       </c>
       <c r="T9">
-        <v>0.2450339058102068</v>
+        <v>0.005396134090899026</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H10">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I10">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J10">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.86053736006093</v>
+        <v>0.9392856666666667</v>
       </c>
       <c r="N10">
-        <v>1.86053736006093</v>
+        <v>2.817857</v>
       </c>
       <c r="O10">
-        <v>0.421462859706459</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="P10">
-        <v>0.421462859706459</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="Q10">
-        <v>91.8534858906883</v>
+        <v>26.42548222220978</v>
       </c>
       <c r="R10">
-        <v>91.8534858906883</v>
+        <v>237.829339999888</v>
       </c>
       <c r="S10">
-        <v>0.2608978554485862</v>
+        <v>0.06652330438430737</v>
       </c>
       <c r="T10">
-        <v>0.2608978554485862</v>
+        <v>0.06652330438430736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.11668558801476</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H11">
-        <v>2.11668558801476</v>
+        <v>84.400784</v>
       </c>
       <c r="I11">
-        <v>0.02654057361843632</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J11">
-        <v>0.02654057361843632</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.806530893214324</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N11">
-        <v>0.806530893214324</v>
+        <v>6.020458</v>
       </c>
       <c r="O11">
-        <v>0.1827014194891425</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="P11">
-        <v>0.1827014194891425</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="Q11">
-        <v>1.707172317955431</v>
+        <v>56.45904169323022</v>
       </c>
       <c r="R11">
-        <v>1.707172317955431</v>
+        <v>508.131375239072</v>
       </c>
       <c r="S11">
-        <v>0.004849000474144403</v>
+        <v>0.1421295545043408</v>
       </c>
       <c r="T11">
-        <v>0.004849000474144403</v>
+        <v>0.1421295545043408</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.11668558801476</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H12">
-        <v>2.11668558801476</v>
+        <v>84.400784</v>
       </c>
       <c r="I12">
-        <v>0.02654057361843632</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J12">
-        <v>0.02654057361843632</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.74740698982626</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="N12">
-        <v>1.74740698982626</v>
+        <v>0.030704</v>
       </c>
       <c r="O12">
-        <v>0.3958357208043984</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="P12">
-        <v>0.3958357208043984</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="Q12">
-        <v>3.698711191761499</v>
+        <v>0.2879379635484444</v>
       </c>
       <c r="R12">
-        <v>3.698711191761499</v>
+        <v>2.591441671936</v>
       </c>
       <c r="S12">
-        <v>0.01050570708881594</v>
+        <v>0.000724852800484827</v>
       </c>
       <c r="T12">
-        <v>0.01050570708881594</v>
+        <v>0.000724852800484827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>28.13359466666667</v>
+      </c>
+      <c r="H13">
+        <v>84.400784</v>
+      </c>
+      <c r="I13">
+        <v>0.3444668642402499</v>
+      </c>
+      <c r="J13">
+        <v>0.3444668642402499</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.907411333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.722234</v>
+      </c>
+      <c r="O13">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="P13">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="Q13">
+        <v>53.66233731460623</v>
+      </c>
+      <c r="R13">
+        <v>482.9610358314561</v>
+      </c>
+      <c r="S13">
+        <v>0.1350891525511169</v>
+      </c>
+      <c r="T13">
+        <v>0.1350891525511169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H14">
+        <v>148.567768</v>
+      </c>
+      <c r="I14">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J14">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9392856666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.817857</v>
+      </c>
+      <c r="O14">
+        <v>0.193119603916127</v>
+      </c>
+      <c r="P14">
+        <v>0.193119603916127</v>
+      </c>
+      <c r="Q14">
+        <v>46.51585833701956</v>
+      </c>
+      <c r="R14">
+        <v>418.642725033176</v>
+      </c>
+      <c r="S14">
+        <v>0.1170986616944359</v>
+      </c>
+      <c r="T14">
+        <v>0.1170986616944359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H15">
+        <v>148.567768</v>
+      </c>
+      <c r="I15">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J15">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.006819333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.020458</v>
+      </c>
+      <c r="O15">
+        <v>0.4126073339966074</v>
+      </c>
+      <c r="P15">
+        <v>0.4126073339966074</v>
+      </c>
+      <c r="Q15">
+        <v>99.38288971086044</v>
+      </c>
+      <c r="R15">
+        <v>894.446007397744</v>
+      </c>
+      <c r="S15">
+        <v>0.2501857172268004</v>
+      </c>
+      <c r="T15">
+        <v>0.2501857172268004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H16">
+        <v>148.567768</v>
+      </c>
+      <c r="I16">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J16">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01023466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.030704</v>
+      </c>
+      <c r="O16">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="P16">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="Q16">
+        <v>0.5068471942968888</v>
+      </c>
+      <c r="R16">
+        <v>4.561624748672</v>
+      </c>
+      <c r="S16">
+        <v>0.001275933203376168</v>
+      </c>
+      <c r="T16">
+        <v>0.001275933203376168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H17">
+        <v>148.567768</v>
+      </c>
+      <c r="I17">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J17">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.907411333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.722234</v>
+      </c>
+      <c r="O17">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="P17">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="Q17">
+        <v>94.45994815041244</v>
+      </c>
+      <c r="R17">
+        <v>850.1395333537121</v>
+      </c>
+      <c r="S17">
+        <v>0.2377927422514339</v>
+      </c>
+      <c r="T17">
+        <v>0.2377927422514339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H18">
+        <v>6.866572</v>
+      </c>
+      <c r="I18">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J18">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9392856666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.817857</v>
+      </c>
+      <c r="O18">
+        <v>0.193119603916127</v>
+      </c>
+      <c r="P18">
+        <v>0.193119603916127</v>
+      </c>
+      <c r="Q18">
+        <v>2.149890886244889</v>
+      </c>
+      <c r="R18">
+        <v>19.349017976204</v>
+      </c>
+      <c r="S18">
+        <v>0.00541211867454646</v>
+      </c>
+      <c r="T18">
+        <v>0.005412118674546461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H19">
+        <v>6.866572</v>
+      </c>
+      <c r="I19">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J19">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.006819333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.020458</v>
+      </c>
+      <c r="O19">
+        <v>0.4126073339966074</v>
+      </c>
+      <c r="P19">
+        <v>0.4126073339966074</v>
+      </c>
+      <c r="Q19">
+        <v>4.59332314777511</v>
+      </c>
+      <c r="R19">
+        <v>41.339908329976</v>
+      </c>
+      <c r="S19">
+        <v>0.01156319613490771</v>
+      </c>
+      <c r="T19">
+        <v>0.01156319613490771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="H13">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="I13">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="J13">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.86053736006093</v>
-      </c>
-      <c r="N13">
-        <v>1.86053736006093</v>
-      </c>
-      <c r="O13">
-        <v>0.421462859706459</v>
-      </c>
-      <c r="P13">
-        <v>0.421462859706459</v>
-      </c>
-      <c r="Q13">
-        <v>3.938172616003999</v>
-      </c>
-      <c r="R13">
-        <v>3.938172616003999</v>
-      </c>
-      <c r="S13">
-        <v>0.01118586605547598</v>
-      </c>
-      <c r="T13">
-        <v>0.01118586605547598</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H20">
+        <v>6.866572</v>
+      </c>
+      <c r="I20">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J20">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01023466666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.030704</v>
+      </c>
+      <c r="O20">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="P20">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="Q20">
+        <v>0.02342569185422222</v>
+      </c>
+      <c r="R20">
+        <v>0.210831226688</v>
+      </c>
+      <c r="S20">
+        <v>5.897165533356536E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.897165533356538E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H21">
+        <v>6.866572</v>
+      </c>
+      <c r="I21">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J21">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.907411333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.722234</v>
+      </c>
+      <c r="O21">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="P21">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="Q21">
+        <v>4.36579241798311</v>
+      </c>
+      <c r="R21">
+        <v>39.292131761848</v>
+      </c>
+      <c r="S21">
+        <v>0.01099041203706387</v>
+      </c>
+      <c r="T21">
+        <v>0.01099041203706387</v>
       </c>
     </row>
   </sheetData>
